--- a/Mathematica/datafiles/N2mr.xlsx
+++ b/Mathematica/datafiles/N2mr.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shyam\SkyDrive\Documents\Courses\ModelingProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shyam\Documents\Courses\CHE1125Project\IntegratedModels\Mathematica\datafiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -705,10 +705,10 @@
     <t>Pr[c], E[c]</t>
   </si>
   <si>
-    <t>E[e] &lt;==&gt;</t>
-  </si>
-  <si>
     <t>E[e]</t>
+  </si>
+  <si>
+    <t>E[e] ---&gt;</t>
   </si>
 </sst>
 </file>
@@ -1721,13 +1721,14 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1855,10 +1856,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>225</v>
+      </c>
+      <c r="B16" t="s">
         <v>224</v>
-      </c>
-      <c r="B16" t="s">
-        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/Mathematica/datafiles/N2mr.xlsx
+++ b/Mathematica/datafiles/N2mr.xlsx
@@ -21,7 +21,7 @@
     <sheet name="N3" sheetId="5" r:id="rId7"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="230">
   <si>
     <t>Reaction</t>
   </si>
@@ -708,7 +708,19 @@
     <t>E[e]</t>
   </si>
   <si>
-    <t>E[e] ---&gt;</t>
+    <t>Positive Effectors FWD</t>
+  </si>
+  <si>
+    <t>Negative Effectors FWD</t>
+  </si>
+  <si>
+    <t>Positive Effectors REV</t>
+  </si>
+  <si>
+    <t>Negative Effectors REV</t>
+  </si>
+  <si>
+    <t>E[e] &lt;==&gt;</t>
   </si>
 </sst>
 </file>
@@ -1718,36 +1730,44 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>225</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="D1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>168</v>
       </c>
@@ -1755,7 +1775,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>162</v>
       </c>
@@ -1763,7 +1783,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>163</v>
       </c>
@@ -1771,7 +1791,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>165</v>
       </c>
@@ -1779,7 +1799,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>166</v>
       </c>
@@ -1787,7 +1807,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>177</v>
       </c>
@@ -1795,7 +1815,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>180</v>
       </c>
@@ -1803,7 +1823,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>164</v>
       </c>
@@ -1811,7 +1831,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>167</v>
       </c>
@@ -1822,7 +1842,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>179</v>
       </c>
@@ -1830,7 +1850,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>222</v>
       </c>
@@ -1838,7 +1858,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>183</v>
       </c>
@@ -1846,7 +1866,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>178</v>
       </c>
@@ -1854,9 +1874,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B16" t="s">
         <v>224</v>
@@ -1864,6 +1884,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Mathematica/datafiles/N2mr.xlsx
+++ b/Mathematica/datafiles/N2mr.xlsx
@@ -9,17 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13320" windowHeight="3795" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13320" windowHeight="3795" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="N1" sheetId="1" r:id="rId1"/>
     <sheet name="N2" sheetId="3" r:id="rId2"/>
     <sheet name="N2mu" sheetId="7" r:id="rId3"/>
     <sheet name="N2mr" sheetId="10" r:id="rId4"/>
-    <sheet name="N3mu" sheetId="8" r:id="rId5"/>
-    <sheet name="N3mr" sheetId="9" r:id="rId6"/>
-    <sheet name="N3" sheetId="5" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId8"/>
+    <sheet name="N2mOpen" sheetId="12" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="16" r:id="rId6"/>
+    <sheet name="N2mClose" sheetId="15" r:id="rId7"/>
+    <sheet name="ExPaper" sheetId="14" r:id="rId8"/>
+    <sheet name="N3mu" sheetId="8" r:id="rId9"/>
+    <sheet name="N3mr" sheetId="9" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId11"/>
+    <sheet name="N3" sheetId="5" r:id="rId12"/>
+    <sheet name="ecoliN1" sheetId="17" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="425">
   <si>
     <t>Reaction</t>
   </si>
@@ -721,13 +726,598 @@
   </si>
   <si>
     <t>E[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>St, E</t>
+  </si>
+  <si>
+    <t>A[c] &lt;==&gt; D[c]</t>
+  </si>
+  <si>
+    <t>C[c] + D[c] &lt;==&gt; Pr[c] + E[c]</t>
+  </si>
+  <si>
+    <t>E[e] ---&gt;</t>
+  </si>
+  <si>
+    <t>glc[e] + pep[c] --&gt; g6p[c] + pyr[c]</t>
+  </si>
+  <si>
+    <t>[c] : g6p &lt;==&gt; f6p</t>
+  </si>
+  <si>
+    <t>[c] : atp + f6p --&gt; adp + fdp + h</t>
+  </si>
+  <si>
+    <t>[c] : fdp + h2o --&gt; f6p + pi</t>
+  </si>
+  <si>
+    <t>[c] : fdp &lt;==&gt; dhap + g3p</t>
+  </si>
+  <si>
+    <t>[c] : g3p &lt;==&gt; dhap</t>
+  </si>
+  <si>
+    <t>[c] : g3p + nad + pi &lt;==&gt; 13dpg + h + nadh</t>
+  </si>
+  <si>
+    <t>[c] : 3pg + atp &lt;==&gt; 13dpg + adp</t>
+  </si>
+  <si>
+    <t>[c] : 2pg &lt;==&gt; 3pg</t>
+  </si>
+  <si>
+    <t>[c] : 2pg &lt;==&gt; h2o + pep</t>
+  </si>
+  <si>
+    <t>[c] : atp + pyr &lt;==&gt; adp + h + pep</t>
+  </si>
+  <si>
+    <t>[c] : atp + h2o + pyr --&gt; amp + 2 h + pep + pi</t>
+  </si>
+  <si>
+    <t>[c] : coa + nad + pyr --&gt; accoa + co2 + nadh</t>
+  </si>
+  <si>
+    <t>[c] : cit + coa + h &lt;==&gt; accoa + h2o + oaa</t>
+  </si>
+  <si>
+    <t>[c] : cit &lt;==&gt; icit</t>
+  </si>
+  <si>
+    <t>[c] : icit + nadp &lt;==&gt; akg + co2 + nadph</t>
+  </si>
+  <si>
+    <t>[c] : icit --&gt; glx + succ</t>
+  </si>
+  <si>
+    <t>[c] : coa + h + mal &lt;==&gt; accoa + glx + h2o</t>
+  </si>
+  <si>
+    <t>[c] : akg + coa + nad --&gt; co2 + nadh + succoa</t>
+  </si>
+  <si>
+    <t>[c] : atp + coa + succ &lt;==&gt; adp + pi + succoa</t>
+  </si>
+  <si>
+    <t>[c] : q8 + succ --&gt; fum + q8h2</t>
+  </si>
+  <si>
+    <t>[c] : q8 + succ &lt;==&gt; fum + q8h2</t>
+  </si>
+  <si>
+    <t>[c] : mal &lt;==&gt; fum + h2o</t>
+  </si>
+  <si>
+    <t>[c] : mal + nad &lt;==&gt; h + nadh + oaa</t>
+  </si>
+  <si>
+    <t>[c] : accoa + for &lt;==&gt; coa + pyr</t>
+  </si>
+  <si>
+    <t>[c] : lac + nad &lt;==&gt; h + nadh + pyr</t>
+  </si>
+  <si>
+    <t>[c] : accoa + pi &lt;==&gt; actp + coa</t>
+  </si>
+  <si>
+    <t>[c] : ac + atp &lt;==&gt; actp + adp</t>
+  </si>
+  <si>
+    <t>[c] : acald + coa + nad &lt;==&gt; accoa + h + nadh</t>
+  </si>
+  <si>
+    <t>[c] : etoh + nad &lt;==&gt; acald + h + nadh</t>
+  </si>
+  <si>
+    <t>[c] : g6p + nadp --&gt; 6pgl + h + nadph</t>
+  </si>
+  <si>
+    <t>[c] : 6pgl + h2o --&gt; 6pgc + h</t>
+  </si>
+  <si>
+    <t>[c] : 6pgc + nadp --&gt; co2 + nadph + ru5p-D</t>
+  </si>
+  <si>
+    <t>[c] : ru5p-D &lt;==&gt; xu5p-D</t>
+  </si>
+  <si>
+    <t>[c] : r5p &lt;==&gt; ru5p-D</t>
+  </si>
+  <si>
+    <t>[c] : g3p + s7p &lt;==&gt; r5p + xu5p-D</t>
+  </si>
+  <si>
+    <t>[c] : g3p + s7p &lt;==&gt; e4p + f6p</t>
+  </si>
+  <si>
+    <t>[c] : f6p + g3p &lt;==&gt; e4p + xu5p-D</t>
+  </si>
+  <si>
+    <t>4 h[e] + nad[c] + q8h2[c] &lt;==&gt; 5 h[c] + nadh[c] + q8[c]</t>
+  </si>
+  <si>
+    <t>[c] : nad + nadph &lt;==&gt; nadh + nadp</t>
+  </si>
+  <si>
+    <t>2 h[c] + nad[c] + nadph[c] &lt;==&gt; 2 h[e] + nadh[c] + nadp[c]</t>
+  </si>
+  <si>
+    <t>[c] : amp + atp &lt;==&gt; 2 adp</t>
+  </si>
+  <si>
+    <t>[c] : atp + h2o --&gt; adp + h + pi</t>
+  </si>
+  <si>
+    <t>atp[c] + 3 h[c] + h2o[c] &lt;==&gt; adp[c] + 4 h[e] + pi[c]</t>
+  </si>
+  <si>
+    <t>6 h[c] + 0.5 o2[c] + q8h2[c] --&gt; 6 h[e] + h2o[c] + q8[c]</t>
+  </si>
+  <si>
+    <t>[c] : h + oaa + pi &lt;==&gt; co2 + h2o + pep</t>
+  </si>
+  <si>
+    <t>[c] : atp + oaa --&gt; adp + co2 + pep</t>
+  </si>
+  <si>
+    <t>[c] : mal + nad --&gt; co2 + nadh + pyr</t>
+  </si>
+  <si>
+    <t>[c] : mal + nadp --&gt; co2 + nadph + pyr</t>
+  </si>
+  <si>
+    <t>h2o[e] &lt;==&gt; h2o[c]</t>
+  </si>
+  <si>
+    <t>o2[e] &lt;==&gt; o2[c]</t>
+  </si>
+  <si>
+    <t>h[e] + pi[e] &lt;==&gt; h[c] + pi[c]</t>
+  </si>
+  <si>
+    <t>co2[e] &lt;==&gt; co2[c]</t>
+  </si>
+  <si>
+    <t>h[e] + pyr[e] &lt;==&gt; h[c] + pyr[c]</t>
+  </si>
+  <si>
+    <t>2 h[e] + succ[e] --&gt; 2 h[c] + succ[c]</t>
+  </si>
+  <si>
+    <t>h[e] + succ[c] --&gt; h[c] + succ[e]</t>
+  </si>
+  <si>
+    <t>akg[e] + h[e] &lt;==&gt; akg[c] + h[c]</t>
+  </si>
+  <si>
+    <t>fum[e] + 2 h[e] --&gt; fum[c] + 2 h[c]</t>
+  </si>
+  <si>
+    <t>2 h[e] + mal[e] --&gt; 2 h[c] + mal[c]</t>
+  </si>
+  <si>
+    <t>h[e] + lac[e] &lt;==&gt; h[c] + lac[c]</t>
+  </si>
+  <si>
+    <t>for[e] + h[e] --&gt; for[c] + h[c]</t>
+  </si>
+  <si>
+    <t>for[c] --&gt; for[e]</t>
+  </si>
+  <si>
+    <t>etoh[e] + h[e] &lt;==&gt; etoh[c] + h[c]</t>
+  </si>
+  <si>
+    <t>ac[e] + h[e] &lt;==&gt; ac[c] + h[c]</t>
+  </si>
+  <si>
+    <t>acald[e] &lt;==&gt; acald[c]</t>
+  </si>
+  <si>
+    <t>pyr[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>succ[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>akg[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>fum[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>mal[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>lac[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>for[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>etoh[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>ac[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>acald[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>glc[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>co2[e]&lt;==&gt;</t>
+  </si>
+  <si>
+    <t>h[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>h2o[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>pi[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>o2[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>[c] : 1.496 3pg + 3.7478 accoa + 59.8100 atp + 0.3610 e4p + 0.0709 f6p + 0.1290 g3p + 0.2050 g6p + 59.8100 h2o + 3.5470 nad + 13.0279 nadph + 1.7867 oaa + 0.5191 pep + 2.8328 pyr + 0.8977 r5p --&gt; 59.8100 adp + 4.1182 akg + 3.7478 coa + 59.8100 h + 3.5470 nadh + 13.0279 nadp + 59.8100 pi</t>
+  </si>
+  <si>
+    <t>glc[e], pep[c]</t>
+  </si>
+  <si>
+    <t>g6p[c]</t>
+  </si>
+  <si>
+    <t>atp[c], f6p[c]</t>
+  </si>
+  <si>
+    <t>fdp[c]</t>
+  </si>
+  <si>
+    <t>g3p[c]</t>
+  </si>
+  <si>
+    <t>2pg[c]</t>
+  </si>
+  <si>
+    <t>cit[c]</t>
+  </si>
+  <si>
+    <t>3pg[c]</t>
+  </si>
+  <si>
+    <t>atp[c], pyr[c]</t>
+  </si>
+  <si>
+    <t>icit[c], nadp[c]</t>
+  </si>
+  <si>
+    <t>icit[c]</t>
+  </si>
+  <si>
+    <t>g3p[c], nad[c], pi[c]</t>
+  </si>
+  <si>
+    <t>3pg[c], atp[c]</t>
+  </si>
+  <si>
+    <t>coa[c], nad[c], pyr[c]</t>
+  </si>
+  <si>
+    <t>cit[c], coa[c]</t>
+  </si>
+  <si>
+    <t>coa[c], mal[c]</t>
+  </si>
+  <si>
+    <t>akg[c], coa[c], nad[c]</t>
+  </si>
+  <si>
+    <t>atp[c], coa[c], succ[c]</t>
+  </si>
+  <si>
+    <t>q8[c], succ[c]</t>
+  </si>
+  <si>
+    <t>mal[c]</t>
+  </si>
+  <si>
+    <t>mal[c], nad[c]</t>
+  </si>
+  <si>
+    <t>accoa[c], for[c]</t>
+  </si>
+  <si>
+    <t>lac[c], nad[c]</t>
+  </si>
+  <si>
+    <t>accoa[c]</t>
+  </si>
+  <si>
+    <t>ac[c], atp[c]</t>
+  </si>
+  <si>
+    <t>acald[c], coa[c], nad[c]</t>
+  </si>
+  <si>
+    <t>etoh[c], nad[c]</t>
+  </si>
+  <si>
+    <t>g6p[c], nadp[c]</t>
+  </si>
+  <si>
+    <t>6pgl[c]</t>
+  </si>
+  <si>
+    <t>6pgc[c], nadp[c]</t>
+  </si>
+  <si>
+    <t>ru5p-D[c]</t>
+  </si>
+  <si>
+    <t>r5p[c]</t>
+  </si>
+  <si>
+    <t>g3p[c], s7p[c]</t>
+  </si>
+  <si>
+    <t>f6p[c], g3p[c]</t>
+  </si>
+  <si>
+    <t>nad[c], q8h2[c]</t>
+  </si>
+  <si>
+    <t>nad[c], nadph[c]</t>
+  </si>
+  <si>
+    <t>amp[c], atp[c]</t>
+  </si>
+  <si>
+    <t>atp[c]</t>
+  </si>
+  <si>
+    <t>o2[c], q8h2[c]</t>
+  </si>
+  <si>
+    <t>oaa[c]</t>
+  </si>
+  <si>
+    <t>atp[c], oaa[c]</t>
+  </si>
+  <si>
+    <t>mal[c], nadp[c]</t>
+  </si>
+  <si>
+    <t>h2o[e]</t>
+  </si>
+  <si>
+    <t>o2[e]</t>
+  </si>
+  <si>
+    <t>h[e], pi[e]</t>
+  </si>
+  <si>
+    <t>co2[e]</t>
+  </si>
+  <si>
+    <t>h[e], pyr[e]</t>
+  </si>
+  <si>
+    <t>h[e], succ[e]</t>
+  </si>
+  <si>
+    <t>h[e], succ[c]</t>
+  </si>
+  <si>
+    <t>h[e], akg[e]</t>
+  </si>
+  <si>
+    <t>h[e], fum[e]</t>
+  </si>
+  <si>
+    <t>h[e], mal[e]</t>
+  </si>
+  <si>
+    <t>h[e], lac[e]</t>
+  </si>
+  <si>
+    <t>h[e], for[e]</t>
+  </si>
+  <si>
+    <t>for[c]</t>
+  </si>
+  <si>
+    <t>h[e], etoh[e]</t>
+  </si>
+  <si>
+    <t>h[e], ac[e]</t>
+  </si>
+  <si>
+    <t>acald[e]</t>
+  </si>
+  <si>
+    <t>pyr[e]</t>
+  </si>
+  <si>
+    <t>succ[e]</t>
+  </si>
+  <si>
+    <t>akg[e]</t>
+  </si>
+  <si>
+    <t>fum[e]</t>
+  </si>
+  <si>
+    <t>mal[e]</t>
+  </si>
+  <si>
+    <t>lac[e]</t>
+  </si>
+  <si>
+    <t>for[e]</t>
+  </si>
+  <si>
+    <t>etoh[e]</t>
+  </si>
+  <si>
+    <t>ac[e]</t>
+  </si>
+  <si>
+    <t>glc[e]</t>
+  </si>
+  <si>
+    <t>h[e]</t>
+  </si>
+  <si>
+    <t>pi[e]</t>
+  </si>
+  <si>
+    <t>g6p[c], pyr[c]</t>
+  </si>
+  <si>
+    <t>f6p[c]</t>
+  </si>
+  <si>
+    <t>dhap[c]</t>
+  </si>
+  <si>
+    <t>dhap[c], g3p[c]</t>
+  </si>
+  <si>
+    <t>13dpg[c], nadh[c]</t>
+  </si>
+  <si>
+    <t>13dpg[c], adp[c]</t>
+  </si>
+  <si>
+    <t>pep[c]</t>
+  </si>
+  <si>
+    <t>adp[c], pep[c]</t>
+  </si>
+  <si>
+    <t>accoa[c], oaa[c]</t>
+  </si>
+  <si>
+    <t>akg[c], nadph[c]</t>
+  </si>
+  <si>
+    <t>accoa[c], glx[c]</t>
+  </si>
+  <si>
+    <t>adp[c], succoa[c]</t>
+  </si>
+  <si>
+    <t>fum[c], q8h2[c]</t>
+  </si>
+  <si>
+    <t>fum[c]</t>
+  </si>
+  <si>
+    <t>oaa[c], nadh[c]</t>
+  </si>
+  <si>
+    <t>coa[c], pyr[c]</t>
+  </si>
+  <si>
+    <t>nadh[c], pyr[c]</t>
+  </si>
+  <si>
+    <t>actp[c], coa[c]</t>
+  </si>
+  <si>
+    <t>actp[c], adp[c]</t>
+  </si>
+  <si>
+    <t>accoa[c], nadh[c]</t>
+  </si>
+  <si>
+    <t>acald[c], nadh[c]</t>
+  </si>
+  <si>
+    <t>xu5p-D[c]</t>
+  </si>
+  <si>
+    <t>r5p[c], xu5p-D[c]</t>
+  </si>
+  <si>
+    <t>e4p[c], f6p[c]</t>
+  </si>
+  <si>
+    <t>e4p[c], xu5p-D[c]</t>
+  </si>
+  <si>
+    <t>nadh[c], q8[c]</t>
+  </si>
+  <si>
+    <t>nadh[c], nadp[c]</t>
+  </si>
+  <si>
+    <t>adp[c]</t>
+  </si>
+  <si>
+    <t>co2[c], pep[c]</t>
+  </si>
+  <si>
+    <t>h2o[c]</t>
+  </si>
+  <si>
+    <t>o2[c]</t>
+  </si>
+  <si>
+    <t>h[c], pi[c]</t>
+  </si>
+  <si>
+    <t>co2[c]</t>
+  </si>
+  <si>
+    <t>h[c], pyr[c]</t>
+  </si>
+  <si>
+    <t>h[c], akg[c]</t>
+  </si>
+  <si>
+    <t>h[c], lac[c]</t>
+  </si>
+  <si>
+    <t>h[c], etoh[c]</t>
+  </si>
+  <si>
+    <t>h[c], ac[c]</t>
+  </si>
+  <si>
+    <t>acald[c]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -735,13 +1325,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -753,14 +1379,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1223,6 +1858,1482 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" t="s">
+        <v>328</v>
+      </c>
+      <c r="D9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B10" t="s">
+        <v>321</v>
+      </c>
+      <c r="D10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" t="s">
+        <v>321</v>
+      </c>
+      <c r="D11" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D12" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B15" t="s">
+        <v>330</v>
+      </c>
+      <c r="D15" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B16" t="s">
+        <v>322</v>
+      </c>
+      <c r="D16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B17" t="s">
+        <v>325</v>
+      </c>
+      <c r="D17" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B19" t="s">
+        <v>331</v>
+      </c>
+      <c r="D19" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B20" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B21" t="s">
+        <v>333</v>
+      </c>
+      <c r="D21" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B22" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B23" t="s">
+        <v>334</v>
+      </c>
+      <c r="D23" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B24" t="s">
+        <v>335</v>
+      </c>
+      <c r="D24" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D25" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B26" t="s">
+        <v>337</v>
+      </c>
+      <c r="D26" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B27" t="s">
+        <v>338</v>
+      </c>
+      <c r="D27" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B28" t="s">
+        <v>339</v>
+      </c>
+      <c r="D28" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B29" t="s">
+        <v>340</v>
+      </c>
+      <c r="D29" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B30" t="s">
+        <v>341</v>
+      </c>
+      <c r="D30" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B31" t="s">
+        <v>342</v>
+      </c>
+      <c r="D31" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B32" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B33" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B34" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B35" t="s">
+        <v>346</v>
+      </c>
+      <c r="D35" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B36" t="s">
+        <v>347</v>
+      </c>
+      <c r="D36" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B37" t="s">
+        <v>348</v>
+      </c>
+      <c r="D37" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B38" t="s">
+        <v>348</v>
+      </c>
+      <c r="D38" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B39" t="s">
+        <v>349</v>
+      </c>
+      <c r="D39" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B40" t="s">
+        <v>350</v>
+      </c>
+      <c r="D40" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B41" t="s">
+        <v>351</v>
+      </c>
+      <c r="D41" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B42" t="s">
+        <v>351</v>
+      </c>
+      <c r="D42" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B43" t="s">
+        <v>352</v>
+      </c>
+      <c r="D43" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B44" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B45" t="s">
+        <v>353</v>
+      </c>
+      <c r="D45" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B46" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B47" t="s">
+        <v>355</v>
+      </c>
+      <c r="D47" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B48" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B49" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B50" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B51" t="s">
+        <v>358</v>
+      </c>
+      <c r="D51" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B52" t="s">
+        <v>359</v>
+      </c>
+      <c r="D52" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B53" t="s">
+        <v>360</v>
+      </c>
+      <c r="D53" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B54" t="s">
+        <v>361</v>
+      </c>
+      <c r="D54" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B55" t="s">
+        <v>362</v>
+      </c>
+      <c r="D55" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B56" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B57" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B58" t="s">
+        <v>365</v>
+      </c>
+      <c r="D58" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B59" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B60" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B61" t="s">
+        <v>368</v>
+      </c>
+      <c r="D61" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B62" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B63" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B64" t="s">
+        <v>371</v>
+      </c>
+      <c r="D64" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B65" t="s">
+        <v>372</v>
+      </c>
+      <c r="D65" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B66" t="s">
+        <v>373</v>
+      </c>
+      <c r="D66" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B67" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B68" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B69" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B70" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B71" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B72" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B73" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B74" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B75" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B76" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B77" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B78" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B79" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B80" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B81" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B82" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C48"/>
@@ -1732,8 +3843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1889,6 +4000,333 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -2041,656 +4479,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>197</v>
-      </c>
-      <c r="B11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>201</v>
-      </c>
-      <c r="B12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>204</v>
-      </c>
-      <c r="B14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>205</v>
-      </c>
-      <c r="B15" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>215</v>
-      </c>
-      <c r="B16" t="s">
-        <v>217</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>132</v>
-      </c>
-      <c r="B23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>133</v>
-      </c>
-      <c r="B24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>137</v>
-      </c>
-      <c r="B28" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>138</v>
-      </c>
-      <c r="B29" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>124</v>
-      </c>
-      <c r="B31" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>125</v>
-      </c>
-      <c r="B32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>126</v>
-      </c>
-      <c r="B33" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>127</v>
-      </c>
-      <c r="B34" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>128</v>
-      </c>
-      <c r="B35" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>129</v>
-      </c>
-      <c r="B36" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>130</v>
-      </c>
-      <c r="B37" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>211</v>
-      </c>
-      <c r="B9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>212</v>
-      </c>
-      <c r="B10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>213</v>
-      </c>
-      <c r="B11" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>214</v>
-      </c>
-      <c r="B12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>168</v>
-      </c>
-      <c r="B16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>177</v>
-      </c>
-      <c r="B17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>178</v>
-      </c>
-      <c r="B18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>179</v>
-      </c>
-      <c r="B19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>